--- a/roster_r1_18.xlsx
+++ b/roster_r1_18.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/randigarcia/Dropbox/DATIC/R 18/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/randigarcia/Dropbox/DATIC/Into_to_r_18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D7726C-9B28-8F4D-8BCD-F8574783FDB4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541891AA-C49E-7740-A71E-6464BF69F135}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{9337AE8B-B25A-C943-829C-3B0E482D1EBF}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15940" xr2:uid="{9337AE8B-B25A-C943-829C-3B0E482D1EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,28 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
-  <si>
-    <t>RegTypeDescription</t>
-  </si>
-  <si>
-    <t>first_Name</t>
-  </si>
-  <si>
-    <t>last_Name</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Email_Address</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Intro to R Workshop Session I</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Nicole</t>
   </si>
@@ -60,9 +39,6 @@
     <t>noverstreet@clarku.edu</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Andrew</t>
   </si>
   <si>
@@ -72,9 +48,6 @@
     <t>andstewart@clarku.edu</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Nancy</t>
   </si>
   <si>
@@ -250,6 +223,24 @@
   </si>
   <si>
     <t>mfwiesner@uh.edu</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>AMarcelo@clarku.edu</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>shannon.venezia@uconn.edu</t>
   </si>
 </sst>
 </file>
@@ -605,47 +596,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3AD11D-8BD6-B74C-8589-266DC68DF58D}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="5" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>CONCATENATE(A1," ", B1)</f>
+        <v>Maho Aikawa</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>CONCATENATE(A2," ", B2)</f>
+        <v>Nancy Darling</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -653,351 +644,335 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>CONCATENATE(A3," ", B3)</f>
+        <v>Annie Fox</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>CONCATENATE(A4," ", B4)</f>
+        <v>Abbie Goldberg</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>CONCATENATE(A5," ", B5)</f>
+        <v>Jiapeng Guo</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>CONCATENATE(A6," ", B6)</f>
+        <v>Thomas Malloy</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>CONCATENATE(A7," ", B7)</f>
+        <v>Melissa Manley</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>CONCATENATE(A8," ", B8)</f>
+        <v>Ana Marcelo</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>CONCATENATE(A9," ", B9)</f>
+        <v>Sara Masland</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>CONCATENATE(A10," ", B10)</f>
+        <v>Veronica Mellado De La Cruz</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>CONCATENATE(A11," ", B11)</f>
+        <v>Juhem Navarro-Rivera</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>CONCATENATE(A12," ", B12)</f>
+        <v>Abby Nissenbaum</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>CONCATENATE(A13," ", B13)</f>
+        <v>Nicole Overstreet</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>CONCATENATE(A14," ", B14)</f>
+        <v>Amish Patel</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>CONCATENATE(A15," ", B15)</f>
+        <v>Patricia M. Rodriguez Mosquera</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>CONCATENATE(A16," ", B16)</f>
+        <v>Andrew Stewart</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>CONCATENATE(A17," ", B17)</f>
+        <v>Kate Toskin</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>CONCATENATE(A18," ", B18)</f>
+        <v>Shannon Venezia</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C19" s="1" t="str">
+        <f>CONCATENATE(A19," ", B19)</f>
+        <v>Johanna Vollhardt</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C20" s="1" t="str">
+        <f>CONCATENATE(A20," ", B20)</f>
+        <v>Margit Wiesner</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A1:E20">
+    <sortCondition ref="B1:B20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>